--- a/Projects/CCRU_SAND/Data/KPIs_2019/Target Execution 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/Target Execution 2019.xlsx
@@ -22,6 +22,12 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Target Execution 2019'!$B$1:$Z$32</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Target Execution 2019'!$B$1:$Z$32</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Target Execution 2019'!$B$1:$Z$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Target Execution 2019'!$B$1:$Z$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Target Execution 2019'!$B$1:$Z$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Target Execution 2019'!$B$1:$Z$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Target Execution 2019'!$B$1:$Z$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Target Execution 2019'!$B$1:$Z$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Target Execution 2019'!$B$1:$Z$32</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -73,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t xml:space="preserve">Status</t>
   </si>
@@ -195,9 +201,6 @@
     <t xml:space="preserve">SUB_LOCATION_TYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">Promo Displays</t>
-  </si>
-  <si>
     <t xml:space="preserve">Water Promo Displays</t>
   </si>
   <si>
@@ -337,6 +340,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coke&amp;Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coke&amp;Meal, Coke&amp;Food, Coke and meal</t>
   </si>
   <si>
     <t xml:space="preserve">Activation bufet line</t>
@@ -403,18 +409,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -495,7 +495,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,7 +503,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,15 +525,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>885240</xdr:colOff>
+      <xdr:colOff>883800</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -542,8 +542,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762120" y="0"/>
-          <a:ext cx="15143760" cy="9918000"/>
+          <a:off x="763560" y="0"/>
+          <a:ext cx="15693480" cy="9916200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -570,15 +570,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>885240</xdr:colOff>
+      <xdr:colOff>883800</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -587,8 +587,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762120" y="0"/>
-          <a:ext cx="15143760" cy="9918000"/>
+          <a:off x="763560" y="0"/>
+          <a:ext cx="15693480" cy="9916200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,38 +620,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="51.8461538461539"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1020" min="27" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.57085020242915"/>
@@ -1048,11 +1048,11 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="7" t="n">
+        <v>701</v>
+      </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7" t="n">
         <v>6</v>
@@ -1081,7 +1081,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>29</v>
@@ -1104,11 +1104,11 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="7" t="n">
+        <v>703</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7" t="n">
         <v>7</v>
@@ -1137,7 +1137,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>29</v>
@@ -1160,11 +1160,11 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="7" t="n">
+        <v>704</v>
+      </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7" t="n">
         <v>8</v>
@@ -1193,7 +1193,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>29</v>
@@ -1216,11 +1216,11 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="7" t="n">
+        <v>705</v>
+      </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7" t="n">
         <v>9</v>
@@ -1249,7 +1249,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>29</v>
@@ -1272,11 +1272,11 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="7" t="n">
+        <v>702</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7" t="n">
         <v>10</v>
@@ -1305,17 +1305,17 @@
         <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>30</v>
@@ -1328,7 +1328,9 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -1359,23 +1361,23 @@
         <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1383,7 +1385,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1415,10 +1417,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>1</v>
@@ -1429,13 +1431,13 @@
         <v>30</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1450,7 +1452,7 @@
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7" t="n">
@@ -1469,17 +1471,17 @@
         <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>30</v>
@@ -1502,7 +1504,7 @@
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" s="7"/>
       <c r="X15" s="7" t="n">
@@ -1521,23 +1523,23 @@
         <v>27</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1545,7 +1547,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -1577,23 +1579,23 @@
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1601,7 +1603,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1633,23 +1635,23 @@
         <v>27</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1657,7 +1659,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -1689,23 +1691,23 @@
         <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1713,7 +1715,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -1745,23 +1747,23 @@
         <v>27</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1769,7 +1771,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -1801,17 +1803,17 @@
         <v>27</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>30</v>
@@ -1834,7 +1836,7 @@
       </c>
       <c r="U21" s="7"/>
       <c r="V21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W21" s="7"/>
       <c r="X21" s="7" t="n">
@@ -1853,17 +1855,17 @@
         <v>27</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>30</v>
@@ -1886,7 +1888,7 @@
       </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7" t="n">
@@ -1905,17 +1907,17 @@
         <v>27</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>30</v>
@@ -1938,7 +1940,7 @@
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7" t="n">
@@ -1957,17 +1959,17 @@
         <v>27</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>30</v>
@@ -1990,7 +1992,7 @@
       </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" s="7"/>
       <c r="X24" s="7" t="n">
@@ -2009,17 +2011,17 @@
         <v>27</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>30</v>
@@ -2042,7 +2044,7 @@
       </c>
       <c r="U25" s="7"/>
       <c r="V25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7" t="n">
@@ -2055,23 +2057,23 @@
     </row>
     <row r="26" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="D26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>30</v>
@@ -2094,7 +2096,7 @@
       </c>
       <c r="U26" s="7"/>
       <c r="V26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7" t="n">
@@ -2107,23 +2109,23 @@
     </row>
     <row r="27" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>30</v>
@@ -2146,7 +2148,7 @@
       </c>
       <c r="U27" s="7"/>
       <c r="V27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" s="7"/>
       <c r="X27" s="7" t="n">
@@ -2159,23 +2161,23 @@
     </row>
     <row r="28" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>30</v>
@@ -2198,7 +2200,7 @@
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7" t="n">
@@ -2217,17 +2219,17 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>30</v>
@@ -2250,7 +2252,7 @@
       </c>
       <c r="U29" s="7"/>
       <c r="V29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W29" s="7"/>
       <c r="X29" s="7" t="n">
@@ -2263,23 +2265,23 @@
     </row>
     <row r="30" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>30</v>
@@ -2302,7 +2304,7 @@
       </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7" t="n">
@@ -2315,23 +2317,23 @@
     </row>
     <row r="31" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>30</v>
@@ -2354,7 +2356,7 @@
       </c>
       <c r="U31" s="7"/>
       <c r="V31" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W31" s="7"/>
       <c r="X31" s="7" t="n">
@@ -2367,23 +2369,23 @@
     </row>
     <row r="32" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>30</v>
@@ -2406,7 +2408,7 @@
       </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7" t="n">
@@ -2425,17 +2427,17 @@
         <v>27</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>30</v>
@@ -2458,7 +2460,7 @@
       </c>
       <c r="U33" s="7"/>
       <c r="V33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W33" s="7"/>
       <c r="X33" s="7" t="n">
@@ -2477,10 +2479,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="7" t="n">
         <v>1</v>
@@ -2510,7 +2512,7 @@
       </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7" t="n">
@@ -2532,7 +2534,7 @@
         <v>88</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" s="7" t="n">
         <v>1</v>
@@ -2562,7 +2564,7 @@
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W35" s="7"/>
       <c r="X35" s="7" t="n">
@@ -2584,7 +2586,7 @@
         <v>89</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="7" t="n">
         <v>1</v>
@@ -2614,7 +2616,7 @@
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W36" s="7"/>
       <c r="X36" s="7" t="n">
@@ -2636,7 +2638,7 @@
         <v>90</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E37" s="7" t="n">
         <v>1</v>
@@ -2666,7 +2668,7 @@
       </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W37" s="7"/>
       <c r="X37" s="7" t="n">
@@ -2688,7 +2690,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" s="7" t="n">
         <v>1</v>
@@ -2718,7 +2720,7 @@
       </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7" t="n">
@@ -2729,6 +2731,8 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="B1:Z32"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/Target Execution 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/Target Execution 2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="106">
   <si>
     <t xml:space="preserve">Status</t>
   </si>
@@ -322,6 +322,27 @@
   <si>
     <t xml:space="preserve">Any Other Activation</t>
   </si>
+  <si>
+    <t xml:space="preserve">Adez Warm Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez Cold Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Shelf - Modern Trade</t>
+  </si>
 </sst>
 </file>
 
@@ -332,7 +353,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -354,6 +375,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -417,7 +445,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,12 +469,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -455,15 +487,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -471,11 +503,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,11 +515,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -495,7 +527,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,35 +535,48 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -605,42 +650,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:41"/>
+  <dimension ref="1:43"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.995951417004"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -33828,6 +33873,120 @@
         <v>2</v>
       </c>
     </row>
+    <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20" t="n">
+        <v>40</v>
+      </c>
+      <c r="U42" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20" t="n">
+        <v>41</v>
+      </c>
+      <c r="U43" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/Target Execution 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/Target Execution 2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="104">
   <si>
     <t xml:space="preserve">Status</t>
   </si>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">Any Other Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">Adez Warm Shelf Share</t>
+    <t xml:space="preserve">Adez Shelf Share</t>
   </si>
   <si>
     <t xml:space="preserve">number of facings</t>
@@ -335,13 +335,7 @@
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
-    <t xml:space="preserve">Warm shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adez Cold Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold Shelf - Modern Trade</t>
+    <t xml:space="preserve">Cold Shelf, Warm Shelf</t>
   </si>
 </sst>
 </file>
@@ -353,7 +347,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -377,13 +371,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -403,7 +390,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +415,12 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -445,7 +438,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,16 +462,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -487,15 +476,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,11 +492,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,11 +504,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -527,7 +516,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,48 +524,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -623,7 +599,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -650,42 +626,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:43"/>
+  <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="P42" activeCellId="0" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -33714,276 +33690,219 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="16" t="n">
+      <c r="E39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16" t="n">
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="U39" s="16" t="n">
+      <c r="U39" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16" t="s">
+      <c r="V39" s="6"/>
+      <c r="W39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16" t="n">
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16" t="n">
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="40" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="16" t="n">
+      <c r="E40" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16" t="n">
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="U40" s="16" t="n">
+      <c r="U40" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16" t="s">
+      <c r="V40" s="6"/>
+      <c r="W40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16" t="n">
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16" t="n">
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="41" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+    <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="16" t="n">
+      <c r="E41" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17" t="s">
+      <c r="F41" s="6"/>
+      <c r="G41" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16" t="n">
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="U41" s="16" t="n">
+      <c r="U41" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16" t="s">
+      <c r="V41" s="6"/>
+      <c r="W41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16" t="n">
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16" t="n">
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="20" t="n">
+      <c r="E42" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H42" s="20" t="s">
+      <c r="H42" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20" t="s">
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20" t="n">
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="U42" s="20" t="n">
+      <c r="U42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20" t="s">
+      <c r="V42" s="16"/>
+      <c r="W42" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20" t="n">
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20" t="n">
-        <v>41</v>
-      </c>
-      <c r="U43" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20" t="n">
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/Target Execution 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/Target Execution 2019.xlsx
@@ -629,9 +629,9 @@
   <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P42" activeCellId="0" sqref="P42"/>
+      <selection pane="bottomLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
